--- a/Data/Insurance_Claims_Input_19-05-2025.xlsx
+++ b/Data/Insurance_Claims_Input_19-05-2025.xlsx
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
